--- a/Doc/Messdaten.xlsx
+++ b/Doc/Messdaten.xlsx
@@ -1,32 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Klobke\Documents\GitHub\MesstechnikBericht1\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A1BEAB-D6C6-4F49-AB2C-08AD56D64AE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>V1: Temperaturmessung mit PT100 &amp; Thermoelement</t>
+  </si>
+  <si>
+    <t>Platz:</t>
+  </si>
+  <si>
+    <t>Namen 
+&amp; Gruppe:</t>
+  </si>
+  <si>
+    <t>Weber, Klobke</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Aufnahme der Kalibriertabelle</t>
+  </si>
+  <si>
+    <t>Referenz PT100</t>
+  </si>
+  <si>
+    <t>T Soll</t>
+  </si>
+  <si>
+    <t>T Ist/°C</t>
+  </si>
+  <si>
+    <r>
+      <t>PT 100 Ref/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PT 100 /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>Thermo/mV</t>
+  </si>
+  <si>
+    <t>Raum</t>
+  </si>
+  <si>
+    <t>60°C</t>
+  </si>
+  <si>
+    <t>180°C</t>
+  </si>
+  <si>
+    <t>240°C</t>
+  </si>
+  <si>
+    <t>300°C</t>
+  </si>
+  <si>
+    <t>Leitungswiderstände bei PT100-Messung für T=100°C</t>
+  </si>
+  <si>
+    <t>Brücke mit U=2V</t>
+  </si>
+  <si>
+    <t>I = 10mA</t>
+  </si>
+  <si>
+    <t>Direkt</t>
+  </si>
+  <si>
+    <t>RL/Ω</t>
+  </si>
+  <si>
+    <t>U Brücke/mV</t>
+  </si>
+  <si>
+    <t>U 4-Leiter/V</t>
+  </si>
+  <si>
+    <t>DMM/Ω</t>
+  </si>
+  <si>
+    <t>Sprungantwort</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>T Start/°C</t>
+  </si>
+  <si>
+    <t>T 10/°C</t>
+  </si>
+  <si>
+    <t>T 90/°C</t>
+  </si>
+  <si>
+    <t>T Ende/°C</t>
+  </si>
+  <si>
+    <t>(t90 - t10)/s</t>
+  </si>
+  <si>
+    <t>PT 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermo </t>
+  </si>
+  <si>
+    <t>Unterschrift Laborleiter</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="169" formatCode="0.000000%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +242,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +349,2328 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Widerstandsthermometer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1207525574075399"/>
+          <c:y val="0.10657555049354593"/>
+          <c:w val="0.83179453969850092"/>
+          <c:h val="0.68301161671419774"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT 100 Ref/Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$7:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.1191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.556399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301.233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$7:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>108.224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.39699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.88300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.53700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03AA-40C6-B370-D7F5C1940BD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT 100 /Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$7:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.1191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.556399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301.233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$7:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>109.133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.86499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.49299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.01599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.94900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213.62100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03AA-40C6-B370-D7F5C1940BD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1570230063"/>
+        <c:axId val="1810818879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1570230063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T/°C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810818879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1810818879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1570230063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linearitätsfehler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$7:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.1191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.556399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301.233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$7:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-6.2833646925962664E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1190605619779237E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7872262843580522E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8446673302198554E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0595187964169972E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.4986630043640282E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1410-405F-95BF-C19007D36A94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1803100479"/>
+        <c:axId val="1806037247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1803100479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T/°C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1806037247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1806037247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fLi/%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1803100479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39817EFB-2D59-41DD-875F-50170043AE26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD83747-6B06-418C-A006-C0EF84926837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2935,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="14" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11">
+        <v>21.1191</v>
+      </c>
+      <c r="C7" s="11">
+        <v>108.224</v>
+      </c>
+      <c r="D7" s="11">
+        <v>109.133</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F7" s="11">
+        <f>0.3731*B7+101.91</f>
+        <v>109.78953620999999</v>
+      </c>
+      <c r="G7" s="2">
+        <f>100*(1+3.90802*(10^-3)*B7-5.80195*(10^-7)*(B7^2))</f>
+        <v>108.22750887056152</v>
+      </c>
+      <c r="H7" s="17">
+        <f>D7-F7</f>
+        <v>-0.65653620999999873</v>
+      </c>
+      <c r="I7" s="18">
+        <f>(D7-F7)/(213.621-109.133)</f>
+        <v>-6.2833646925962664E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11">
+        <v>61.556399999999996</v>
+      </c>
+      <c r="C8" s="11">
+        <v>123.843</v>
+      </c>
+      <c r="D8" s="11">
+        <v>124.86499999999999</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2.52</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" ref="F8:F12" si="0">0.3731*B8+101.91</f>
+        <v>124.87669283999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8" si="1">100*(1+3.90802*(10^-3)*B8-5.80195*(10^-7)*(B8^2))</f>
+        <v>123.8365173014919</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" ref="H8:H12" si="2">D8-F8</f>
+        <v>-1.1692839999994931E-2</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" ref="I8:I12" si="3">(D8-F8)/(213.621-109.133)</f>
+        <v>-1.1190605619779237E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>120</v>
+      </c>
+      <c r="B9" s="11">
+        <v>120.833</v>
+      </c>
+      <c r="C9" s="11">
+        <v>146.39699999999999</v>
+      </c>
+      <c r="D9" s="11">
+        <v>147.49299999999999</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>146.99279229999999</v>
+      </c>
+      <c r="G9" s="2">
+        <f>100*(1+3.90802*(10^-3)*B9-5.80195*(10^-7)*(B9^2))</f>
+        <v>146.37465774846714</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="2"/>
+        <v>0.50020770000000425</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="3"/>
+        <v>4.7872262843580522E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11">
+        <v>180.624</v>
+      </c>
+      <c r="C10" s="11">
+        <v>168.73500000000001</v>
+      </c>
+      <c r="D10" s="11">
+        <v>170.01599999999999</v>
+      </c>
+      <c r="E10" s="11">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>169.30081439999998</v>
+      </c>
+      <c r="G10" s="2">
+        <f>100*(1+3.90802*(10^-3)*B10-5.80195*(10^-7)*(B10^2))</f>
+        <v>168.69533255611918</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="2"/>
+        <v>0.7151856000000123</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="3"/>
+        <v>6.8446673302198554E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
+        <v>241.03</v>
+      </c>
+      <c r="C11" s="11">
+        <v>190.88300000000001</v>
+      </c>
+      <c r="D11" s="11">
+        <v>191.94900000000001</v>
+      </c>
+      <c r="E11" s="11">
+        <v>9.7560000000000002</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>191.83829299999999</v>
+      </c>
+      <c r="G11" s="2">
+        <f>100*(1+3.90802*(10^-3)*B11-5.80195*(10^-7)*(B11^2))</f>
+        <v>190.82433646631245</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="2"/>
+        <v>0.11070700000001921</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="3"/>
+        <v>1.0595187964169972E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11">
+        <v>301.233</v>
+      </c>
+      <c r="C12" s="11">
+        <v>212.53700000000001</v>
+      </c>
+      <c r="D12" s="11">
+        <v>213.62100000000001</v>
+      </c>
+      <c r="E12" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>214.3000323</v>
+      </c>
+      <c r="G12" s="2">
+        <f>100*(1+3.90802*(10^-3)*B12-5.80195*(10^-7)*(B12^2))</f>
+        <v>212.45769283349233</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.67903229999998871</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="3"/>
+        <v>-6.4986630043640282E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>167.203</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.3851</v>
+      </c>
+      <c r="D17" s="11">
+        <v>138.41200000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <f>100*(1+3.90802*(10^-3)*0-5.80195*(10^-7)*(0^2))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11">
+        <v>170.56399999999999</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1.3851</v>
+      </c>
+      <c r="D18" s="11">
+        <v>138.41200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B19" s="11">
+        <v>198.58199999999999</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1.3851</v>
+      </c>
+      <c r="D19" s="11">
+        <v>138.41200000000001</v>
+      </c>
+      <c r="H19" s="19">
+        <f>(0.715)/(213.621-109.133)</f>
+        <v>6.8428910496899156E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11">
+        <v>228.791</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1.3851</v>
+      </c>
+      <c r="D20" s="11">
+        <v>138.41300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>22.1</v>
+      </c>
+      <c r="B21" s="11">
+        <v>293.79199999999997</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1.3851</v>
+      </c>
+      <c r="D21" s="11">
+        <v>138.42099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="11">
+        <v>20.3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>27.87</v>
+      </c>
+      <c r="D25" s="11">
+        <v>88.43</v>
+      </c>
+      <c r="E25" s="11">
+        <v>96</v>
+      </c>
+      <c r="F25" s="11">
+        <f>5.11-2.14</f>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="C26" s="11">
+        <v>28.05</v>
+      </c>
+      <c r="D26" s="11">
+        <v>88.45</v>
+      </c>
+      <c r="E26" s="11">
+        <v>95.8</v>
+      </c>
+      <c r="F26" s="11">
+        <f>5.12-2.075</f>
+        <v>3.0449999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/Messdaten.xlsx
+++ b/Doc/Messdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Klobke\Documents\GitHub\MesstechnikBericht1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A1BEAB-D6C6-4F49-AB2C-08AD56D64AE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B696D-E5B8-4205-A02A-30C2509AEF54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>V1: Temperaturmessung mit PT100 &amp; Thermoelement</t>
   </si>
@@ -172,6 +172,12 @@
   <si>
     <t>Lin</t>
   </si>
+  <si>
+    <t>Thermo Reg</t>
+  </si>
+  <si>
+    <t>Thermo Delt</t>
+  </si>
 </sst>
 </file>
 
@@ -179,8 +185,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
-    <numFmt numFmtId="169" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -226,12 +232,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -286,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -331,8 +343,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1484,6 +1505,521 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Thermospannung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thermo/mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$7:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.1191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.556399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301.233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$7:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89C2-4901-A25E-AE3514EC9AB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1570234063"/>
+        <c:axId val="1804087663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1570234063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T/°C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804087663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1804087663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>U/mV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1570234063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1564,6 +2100,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2081,6 +2657,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2665,6 +3757,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0FBA79-0705-427A-B3D7-4B1016322C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2936,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2947,15 +4075,16 @@
     <col min="1" max="1" width="8.42578125" style="14" customWidth="1"/>
     <col min="2" max="8" width="15.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2975,7 +4104,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="5"/>
@@ -2983,18 +4112,19 @@
       <c r="E3" s="3"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -3022,8 +4152,14 @@
       <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3055,8 +4191,16 @@
         <f>(D7-F7)/(213.621-109.133)</f>
         <v>-6.2833646925962664E-3</v>
       </c>
+      <c r="J7" s="17">
+        <f>0.0405*B7+0.0344</f>
+        <v>0.88972355000000003</v>
+      </c>
+      <c r="K7" s="17">
+        <f>E7-J7</f>
+        <v>-4.7723550000000059E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3088,41 +4232,57 @@
         <f t="shared" ref="I8:I12" si="3">(D8-F8)/(213.621-109.133)</f>
         <v>-1.1190605619779237E-4</v>
       </c>
+      <c r="J8" s="17">
+        <f t="shared" ref="J8:J12" si="4">0.0405*B8+0.0344</f>
+        <v>2.5274342000000001</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" ref="K8:K12" si="5">E8-J8</f>
+        <v>-7.4342000000000574E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>120</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="21">
         <v>120.833</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="21">
         <v>146.39699999999999</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="21">
         <v>147.49299999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="21">
         <v>4.9859999999999998</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="21">
         <f t="shared" si="0"/>
         <v>146.99279229999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="22">
         <f>100*(1+3.90802*(10^-3)*B9-5.80195*(10^-7)*(B9^2))</f>
         <v>146.37465774846714</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="23">
         <f t="shared" si="2"/>
         <v>0.50020770000000425</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="24">
         <f t="shared" si="3"/>
         <v>4.7872262843580522E-3</v>
       </c>
+      <c r="J9" s="23">
+        <f t="shared" si="4"/>
+        <v>4.9281364999999999</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="5"/>
+        <v>5.7863499999999846E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -3154,8 +4314,16 @@
         <f t="shared" si="3"/>
         <v>6.8446673302198554E-3</v>
       </c>
+      <c r="J10" s="17">
+        <f t="shared" si="4"/>
+        <v>7.349672</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="5"/>
+        <v>2.8328000000000131E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3187,8 +4355,16 @@
         <f t="shared" si="3"/>
         <v>1.0595187964169972E-3</v>
       </c>
+      <c r="J11" s="17">
+        <f t="shared" si="4"/>
+        <v>9.7961150000000004</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="5"/>
+        <v>-4.0115000000000123E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -3220,13 +4396,21 @@
         <f t="shared" si="3"/>
         <v>-6.4986630043640282E-3</v>
       </c>
+      <c r="J12" s="17">
+        <f t="shared" si="4"/>
+        <v>12.2343365</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="5"/>
+        <v>-3.4336500000000214E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -3238,7 +4422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>

--- a/Doc/Messdaten.xlsx
+++ b/Doc/Messdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Klobke\Documents\GitHub\MesstechnikBericht1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B696D-E5B8-4205-A02A-30C2509AEF54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04BEAD9-D001-4229-AF8C-F37E145C22EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>V1: Temperaturmessung mit PT100 &amp; Thermoelement</t>
   </si>
@@ -183,10 +183,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000000%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -298,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -354,6 +355,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1629,38 +1631,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3764,16 +3736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>138111</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4064,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4079,12 +4051,12 @@
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4104,7 +4076,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="5"/>
@@ -4112,19 +4084,19 @@
       <c r="E3" s="3"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -4159,7 +4131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -4199,8 +4171,12 @@
         <f>E7-J7</f>
         <v>-4.7723550000000059E-2</v>
       </c>
+      <c r="L7" s="25">
+        <f>(E7-J7)/($E$12-$E$7)</f>
+        <v>-4.2017564712097258E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -4240,8 +4216,12 @@
         <f t="shared" ref="K8:K12" si="5">E8-J8</f>
         <v>-7.4342000000000574E-3</v>
       </c>
+      <c r="L8" s="25">
+        <f t="shared" ref="L8:L12" si="6">(E8-J8)/($E$12-$E$7)</f>
+        <v>-6.5453424898750294E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>120</v>
       </c>
@@ -4281,8 +4261,12 @@
         <f t="shared" si="5"/>
         <v>5.7863499999999846E-2</v>
       </c>
+      <c r="L9" s="25">
+        <f t="shared" si="6"/>
+        <v>5.0945148793801595E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -4322,8 +4306,12 @@
         <f t="shared" si="5"/>
         <v>2.8328000000000131E-2</v>
       </c>
+      <c r="L10" s="25">
+        <f t="shared" si="6"/>
+        <v>2.4941010741327818E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
@@ -4363,8 +4351,12 @@
         <f t="shared" si="5"/>
         <v>-4.0115000000000123E-2</v>
       </c>
+      <c r="L11" s="25">
+        <f t="shared" si="6"/>
+        <v>-3.5318718084169859E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -4404,13 +4396,17 @@
         <f t="shared" si="5"/>
         <v>-3.4336500000000214E-2</v>
       </c>
+      <c r="L12" s="25">
+        <f t="shared" si="6"/>
+        <v>-3.0231114632858088E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -4422,7 +4418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>

--- a/Doc/Messdaten.xlsx
+++ b/Doc/Messdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Klobke\Documents\GitHub\MesstechnikBericht1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04BEAD9-D001-4229-AF8C-F37E145C22EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A18E8-2F7D-4DC5-8418-C690A5DFE25A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000000%"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3736,16 +3736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>357186</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4038,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
